--- a/Table2.xlsx
+++ b/Table2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroha\Downloads\Timetable_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding projects\myGithub\Personal_use\Timetable_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9944D3-8648-4287-890C-FFFBAC957D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039EA814-64D6-43E3-94AD-B377E10808C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A31F0722-B16A-4205-BAF9-C0CF1DF0AAFF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="173">
   <si>
     <t>Course Code</t>
   </si>
@@ -444,6 +444,117 @@
   </si>
   <si>
     <t>10521</t>
+  </si>
+  <si>
+    <t>SC2207</t>
+  </si>
+  <si>
+    <t>10321</t>
+  </si>
+  <si>
+    <t>10322</t>
+  </si>
+  <si>
+    <t>10323</t>
+  </si>
+  <si>
+    <t>10324</t>
+  </si>
+  <si>
+    <t>10325</t>
+  </si>
+  <si>
+    <t>10326</t>
+  </si>
+  <si>
+    <t>10327</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10328</t>
+  </si>
+  <si>
+    <t>10329</t>
+  </si>
+  <si>
+    <t>10330</t>
+  </si>
+  <si>
+    <t>10331</t>
+  </si>
+  <si>
+    <t>10332</t>
+  </si>
+  <si>
+    <t>10333</t>
+  </si>
+  <si>
+    <t>10334</t>
+  </si>
+  <si>
+    <t>10335</t>
+  </si>
+  <si>
+    <t>SCMB</t>
+  </si>
+  <si>
+    <t>10336</t>
+  </si>
+  <si>
+    <t>SCMC</t>
+  </si>
+  <si>
+    <t>10337</t>
+  </si>
+  <si>
+    <t>STA1</t>
+  </si>
+  <si>
+    <t>10338</t>
+  </si>
+  <si>
+    <t>ACDA</t>
+  </si>
+  <si>
+    <t>10339</t>
+  </si>
+  <si>
+    <t>BACF1</t>
+  </si>
+  <si>
+    <t>10340</t>
+  </si>
+  <si>
+    <t>BACF2</t>
+  </si>
+  <si>
+    <t>10341</t>
+  </si>
+  <si>
+    <t>ECDS1</t>
+  </si>
+  <si>
+    <t>10342</t>
+  </si>
+  <si>
+    <t>ECDS2</t>
+  </si>
+  <si>
+    <t>10343</t>
+  </si>
+  <si>
+    <t>MACS</t>
+  </si>
+  <si>
+    <t>10344</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>10345</t>
   </si>
 </sst>
 </file>
@@ -491,10 +602,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C15402D-1CEB-4E9C-B8BC-C13066E81F86}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3148,7 +3260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>132</v>
       </c>
@@ -3168,7 +3280,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -3186,6 +3298,1231 @@
       </c>
       <c r="F98" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G110" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" t="s">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" t="s">
+        <v>102</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" t="s">
+        <v>103</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" t="s">
+        <v>105</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G128" t="s">
+        <v>153</v>
+      </c>
+      <c r="H128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G130" t="s">
+        <v>155</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" t="s">
+        <v>157</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G134" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G136" t="s">
+        <v>161</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G138" t="s">
+        <v>163</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G142" t="s">
+        <v>167</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G144" t="s">
+        <v>169</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" t="s">
+        <v>171</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G148" t="s">
+        <v>113</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
